--- a/_data/taxonomy.xlsx
+++ b/_data/taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\supertracker\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11E50D-8B7F-48D9-9EC4-287CB6BBFC41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE7158-3279-4345-BDF4-019B1FA7DC72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
